--- a/YODA_TimeSeries_TEMPLATE_DRAFT.xlsx
+++ b/YODA_TimeSeries_TEMPLATE_DRAFT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="20610" windowHeight="8130" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="20610" windowHeight="8130" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="People and Organizations" sheetId="7" r:id="rId1"/>
@@ -15,8 +15,15 @@
     <sheet name="Results Description" sheetId="4" r:id="rId6"/>
     <sheet name="Data Values" sheetId="5" r:id="rId7"/>
     <sheet name="YODA File - with Whitespace" sheetId="6" r:id="rId8"/>
-    <sheet name="Controlled Vocabularies" sheetId="3" r:id="rId9"/>
+    <sheet name="YODA File - Clean" sheetId="10" r:id="rId9"/>
+    <sheet name="Controlled Vocabularies" sheetId="3" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'YODA File - Clean'!$A$1:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'YODA File - with Whitespace'!$A$1:$A$35</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="8">'YODA File - Clean'!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="8">'YODA File - Clean'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +39,7 @@
     <author>Sara Geleskie Damiano</author>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="533">
   <si>
     <t>Dataset UUID</t>
   </si>
@@ -1713,9 +1720,6 @@
     <t>People:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Person: &amp;PersonID001</t>
-  </si>
-  <si>
     <t>Primary Address</t>
   </si>
   <si>
@@ -1746,10 +1750,10 @@
     <t>NOTE:  Add missing value warnings here</t>
   </si>
   <si>
-    <t># This will have lots of white space in it.  Sorry.</t>
-  </si>
-  <si>
-    <t>TODO:  Re-write as compact format.  This will give slightly less white space.</t>
+    <t>Organizations:</t>
+  </si>
+  <si>
+    <t>Affiliations:</t>
   </si>
 </sst>
 </file>
@@ -2344,30 +2348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2379,15 +2359,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2404,6 +2375,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2411,7 +2415,115 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2859,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,43 +2995,43 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="25" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -2970,104 +3082,101 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="H13" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="H14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G17" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>523</v>
-      </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="F19" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="G18" s="52" t="s">
-        <v>523</v>
-      </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="56"/>
+      <c r="G19" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -3076,8 +3185,8 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="56"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -3086,8 +3195,8 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="56"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -3096,8 +3205,8 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="56"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -3106,8 +3215,8 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -3116,36 +3225,56 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="56"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="56"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B13">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B14">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E25">
-      <formula1>$C$5:$C$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E27">
+      <formula1>$C$5:$C$14</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -3157,7 +3286,7 @@
           <x14:formula1>
             <xm:f>'Controlled Vocabularies'!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A13</xm:sqref>
+          <xm:sqref>A5:A14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3165,12 +3294,1696 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I228"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>493</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,13 +5003,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
@@ -3205,7 +5018,9 @@
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -3224,7 +5039,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3232,60 +5047,60 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="37" t="s">
         <v>508</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="D9" s="58" t="s">
-        <v>526</v>
+      <c r="D9" s="47" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="37" t="s">
         <v>493</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="58" t="s">
-        <v>524</v>
+      <c r="D12" s="47" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -3296,61 +5111,67 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="34">
         <v>1</v>
       </c>
       <c r="B18" s="4"/>
       <c r="D18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="35">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="35">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="A21" s="35">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+      <c r="A22" s="35">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
+      <c r="A23" s="35">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="A24" s="35">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="35">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35">
         <v>9</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3370,9 +5191,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'People and Organizations'!$C$17:$C$25</xm:f>
+            <xm:f>'People and Organizations'!$C$18:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:B26</xm:sqref>
+          <xm:sqref>B18:B27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3418,10 +5239,10 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -3429,7 +5250,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3438,12 +5259,12 @@
       </c>
       <c r="B6" s="10"/>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3459,10 +5280,10 @@
       <c r="D8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -3489,15 +5310,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="str">
-        <f>IF($B9="site","ENTER VALUE","~")</f>
+        <f t="shared" ref="H9:I28" si="0">IF($B9="site","ENTER VALUE","~")</f>
         <v>~</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF($B9="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>IF($B9="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" ref="J9:J46" si="1">IF($B9="Specimen","ENTER VALUE","~")</f>
         <v>ENTER VALUE</v>
       </c>
     </row>
@@ -3510,15 +5331,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6" t="str">
-        <f>IF($B10="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I10" s="6" t="str">
-        <f>IF($B10="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF($B10="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3531,15 +5352,15 @@
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="str">
-        <f>IF($B11="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I11" s="6" t="str">
-        <f>IF($B11="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J11" s="7" t="str">
-        <f>IF($B11="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3552,15 +5373,15 @@
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="str">
-        <f>IF($B12="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I12" s="6" t="str">
-        <f>IF($B12="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J12" s="7" t="str">
-        <f>IF($B12="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3573,15 +5394,15 @@
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="str">
-        <f>IF($B13="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I13" s="6" t="str">
-        <f>IF($B13="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J13" s="7" t="str">
-        <f>IF($B13="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3594,15 +5415,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6" t="str">
-        <f>IF($B14="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f>IF($B14="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J14" s="7" t="str">
-        <f>IF($B14="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3615,15 +5436,15 @@
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6" t="str">
-        <f>IF($B15="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f>IF($B15="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J15" s="7" t="str">
-        <f>IF($B15="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3636,15 +5457,15 @@
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6" t="str">
-        <f>IF($B16="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f>IF($B16="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J16" s="7" t="str">
-        <f>IF($B16="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3657,15 +5478,15 @@
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6" t="str">
-        <f>IF($B17="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f>IF($B17="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f>IF($B17="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3678,15 +5499,15 @@
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6" t="str">
-        <f>IF($B18="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f>IF($B18="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J18" s="7" t="str">
-        <f>IF($B18="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3699,15 +5520,15 @@
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6" t="str">
-        <f>IF($B19="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f>IF($B19="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J19" s="7" t="str">
-        <f>IF($B19="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3720,15 +5541,15 @@
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6" t="str">
-        <f>IF($B20="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f>IF($B20="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J20" s="7" t="str">
-        <f>IF($B20="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3741,15 +5562,15 @@
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6" t="str">
-        <f>IF($B21="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f>IF($B21="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J21" s="7" t="str">
-        <f>IF($B21="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3762,15 +5583,15 @@
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6" t="str">
-        <f>IF($B22="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f>IF($B22="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J22" s="7" t="str">
-        <f>IF($B22="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3783,15 +5604,15 @@
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6" t="str">
-        <f>IF($B23="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I23" s="6" t="str">
-        <f>IF($B23="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J23" s="7" t="str">
-        <f>IF($B23="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3804,15 +5625,15 @@
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6" t="str">
-        <f>IF($B24="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f>IF($B24="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF($B24="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3825,15 +5646,15 @@
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6" t="str">
-        <f>IF($B25="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f>IF($B25="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J25" s="7" t="str">
-        <f>IF($B25="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3846,15 +5667,15 @@
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6" t="str">
-        <f>IF($B26="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f>IF($B26="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J26" s="7" t="str">
-        <f>IF($B26="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3867,15 +5688,15 @@
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6" t="str">
-        <f>IF($B27="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f>IF($B27="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J27" s="7" t="str">
-        <f>IF($B27="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3888,15 +5709,15 @@
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6" t="str">
-        <f>IF($B28="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f>IF($B28="site","ENTER VALUE","~")</f>
+        <f t="shared" si="0"/>
         <v>~</v>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IF($B28="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3909,15 +5730,15 @@
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6" t="str">
-        <f>IF($B29="site","ENTER VALUE","~")</f>
+        <f t="shared" ref="H29:I46" si="2">IF($B29="site","ENTER VALUE","~")</f>
         <v>~</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f>IF($B29="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF($B29="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3930,15 +5751,15 @@
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6" t="str">
-        <f>IF($B30="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f>IF($B30="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF($B30="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3951,15 +5772,15 @@
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6" t="str">
-        <f>IF($B31="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f>IF($B31="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF($B31="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3972,15 +5793,15 @@
       <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6" t="str">
-        <f>IF($B32="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I32" s="6" t="str">
-        <f>IF($B32="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF($B32="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -3993,15 +5814,15 @@
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6" t="str">
-        <f>IF($B33="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I33" s="6" t="str">
-        <f>IF($B33="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J33" s="7" t="str">
-        <f>IF($B33="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4014,15 +5835,15 @@
       <c r="F34" s="6"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6" t="str">
-        <f>IF($B34="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f>IF($B34="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J34" s="7" t="str">
-        <f>IF($B34="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4035,15 +5856,15 @@
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6" t="str">
-        <f>IF($B35="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I35" s="6" t="str">
-        <f>IF($B35="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J35" s="7" t="str">
-        <f>IF($B35="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4056,15 +5877,15 @@
       <c r="F36" s="6"/>
       <c r="G36" s="3"/>
       <c r="H36" s="6" t="str">
-        <f>IF($B36="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I36" s="6" t="str">
-        <f>IF($B36="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J36" s="7" t="str">
-        <f>IF($B36="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4077,15 +5898,15 @@
       <c r="F37" s="6"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6" t="str">
-        <f>IF($B37="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I37" s="6" t="str">
-        <f>IF($B37="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J37" s="7" t="str">
-        <f>IF($B37="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4098,15 +5919,15 @@
       <c r="F38" s="6"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6" t="str">
-        <f>IF($B38="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I38" s="6" t="str">
-        <f>IF($B38="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J38" s="7" t="str">
-        <f>IF($B38="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4119,15 +5940,15 @@
       <c r="F39" s="6"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6" t="str">
-        <f>IF($B39="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I39" s="6" t="str">
-        <f>IF($B39="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J39" s="7" t="str">
-        <f>IF($B39="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4140,15 +5961,15 @@
       <c r="F40" s="6"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6" t="str">
-        <f>IF($B40="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I40" s="6" t="str">
-        <f>IF($B40="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J40" s="7" t="str">
-        <f>IF($B40="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4161,15 +5982,15 @@
       <c r="F41" s="6"/>
       <c r="G41" s="3"/>
       <c r="H41" s="6" t="str">
-        <f>IF($B41="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I41" s="6" t="str">
-        <f>IF($B41="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J41" s="7" t="str">
-        <f>IF($B41="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4182,15 +6003,15 @@
       <c r="F42" s="6"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6" t="str">
-        <f>IF($B42="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I42" s="6" t="str">
-        <f>IF($B42="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J42" s="7" t="str">
-        <f>IF($B42="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4203,15 +6024,15 @@
       <c r="F43" s="6"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6" t="str">
-        <f>IF($B43="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I43" s="6" t="str">
-        <f>IF($B43="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J43" s="7" t="str">
-        <f>IF($B43="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4224,15 +6045,15 @@
       <c r="F44" s="6"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6" t="str">
-        <f>IF($B44="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I44" s="6" t="str">
-        <f>IF($B44="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J44" s="7" t="str">
-        <f>IF($B44="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4245,15 +6066,15 @@
       <c r="F45" s="6"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6" t="str">
-        <f>IF($B45="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I45" s="6" t="str">
-        <f>IF($B45="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J45" s="7" t="str">
-        <f>IF($B45="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4266,15 +6087,15 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="str">
-        <f>IF($B46="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="I46" s="9" t="str">
-        <f>IF($B46="site","ENTER VALUE","~")</f>
+        <f t="shared" si="2"/>
         <v>~</v>
       </c>
       <c r="J46" s="10" t="str">
-        <f>IF($B46="Specimen","ENTER VALUE","~")</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -4363,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -4386,10 +6207,10 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -4429,16 +6250,16 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -5532,124 +7353,298 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
-      <c r="G1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f>CONCATENATE("  DataSetUUID:  ",IF('Dataset Citation'!$B$4="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$4,CHAR(34))))</f>
         <v xml:space="preserve">  DataSetUUID:  ~</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF('Dataset Citation'!$B$5="","PLEASE FILL IN THE DATASET TYPE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetTypeCV:  ",CHAR(34),'Dataset Citation'!$B$5,CHAR(34)))</f>
+        <v xml:space="preserve">  DataSetTypeCV:  "Climate"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF('Dataset Citation'!$B$5="","PLEASE FILL IN THE DATASET TYPE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetTypeCV:  ",CHAR(34),'Dataset Citation'!$B$5,CHAR(34)))</f>
-        <v>PLEASE FILL IN THE DATASET TYPE IN THE DATASET CITATION TAB</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
         <f>IF('Dataset Citation'!$B$6="","PLEASE FILL IN THE DATASET CODE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$6,CHAR(34)))</f>
         <v xml:space="preserve">  DataSetCode:  "TWDEF_AirTemp"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
         <f>IF('Dataset Citation'!$B$7="","PLEASE FILL IN THE DATASET TITLE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$7,CHAR(34)))</f>
         <v xml:space="preserve">  DataSetCode:  "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
         <f>CONCATENATE("  DataSetAbstract:  ",IF('Dataset Citation'!$B$8="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$8,CHAR(34))))</f>
         <v xml:space="preserve">  DataSetAbstract:  "Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period."</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE("  - &amp;PersonID001 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$18,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$18,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$18,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$18,CHAR(34),"}")</f>
+        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh", PersonOrcID:  ""}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>IF('People and Organizations'!$A$19="","",CONCATENATE("  - &amp;PersonID002 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$19,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$19,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$19,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$19,CHAR(34),"}"))</f>
+        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones", PersonOrcID:  ""}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF('People and Organizations'!$A$17="","PLEASE FILL IN AT LEAST ONE PERSON WITH A FIRST NAME, LAST NAME, AND EMAIL IN THE PEOPLE AND ORGANIZATIONS TAB",CONCATENATE("     PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$17,CHAR(34)))</f>
-        <v xml:space="preserve">     PersonFirstName:  "Jeffrey"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>IF('People and Organizations'!$A$20="","",CONCATENATE("  - &amp;PersonID003 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$20,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$20,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$20,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$20,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF('People and Organizations'!$B$17="","~",CONCATENATE("     PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$17,CHAR(34)))</f>
-        <v xml:space="preserve">     PersonMiddleName:  "S."</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>IF('People and Organizations'!$A$21="","",CONCATENATE("  - &amp;PersonID004 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$21,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$21,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$21,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$21,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF('People and Organizations'!$C$17="","PLEASE FILL IN AT LEAST ONE PERSON WITH A FIRST NAME, LAST NAME, AND EMAIL IN THE PEOPLE AND ORGANIZATIONS TAB",CONCATENATE("     PersonLastName:  ",CHAR(34),'People and Organizations'!$C$17,CHAR(34)))</f>
-        <v xml:space="preserve">     PersonLastName:  "Horsburgh"</v>
+        <f>IF('People and Organizations'!$A$22="","",CONCATENATE("  - &amp;PersonID005 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$22,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$22,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$22,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$22,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>IF('People and Organizations'!$A$23="","",CONCATENATE("  - &amp;PersonID006 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$23,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$23,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$23,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$23,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF('People and Organizations'!$A$24="","",CONCATENATE("  - &amp;PersonID007 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$24,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$24,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$24,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$24,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF('People and Organizations'!$A$25="","",CONCATENATE("  - &amp;PersonID008 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$25,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$25,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$25,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$25,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF('People and Organizations'!$A$26="","",CONCATENATE("  - &amp;PersonID009 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$26,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$26,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$26,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$26,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF('People and Organizations'!$A$27="","",CONCATENATE("  - &amp;PersonID010 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$27,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$27,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$27,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$27,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE("  - &amp;OrganizationID001 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$5,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$5,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$5,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$5,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$5,CHAR(34),"}")</f>
+        <v xml:space="preserve">  - &amp;OrganizationID001 {OrganizationTypeCV:  "University", OrganizationCode:  "USU", OrganizationName:  "Utah State University", OrganizationDescription:  "", OrganizationLink:  ""}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF('People and Organizations'!$A$6="","",CONCATENATE("  - &amp;OrganizationID002 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$6,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$6,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$6,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$6,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$6,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF('People and Organizations'!$A$7="","",CONCATENATE("  - &amp;OrganizationID003 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$7,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$7,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$7,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$7,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$7,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('People and Organizations'!$A$8="","",CONCATENATE("  - &amp;OrganizationID004 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$8,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$8,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$8,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$8,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$8,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('People and Organizations'!$A$9="","",CONCATENATE("  - &amp;OrganizationID005 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$9,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$9,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$9,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$9,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$9,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF('People and Organizations'!$A$10="","",CONCATENATE("  - &amp;OrganizationID006 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$10,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$10,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$10,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$10,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$10,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF('People and Organizations'!$A$11="","",CONCATENATE("  - &amp;OrganizationID007 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$11,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$11,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$11,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$11,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$11,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF('People and Organizations'!$A$12="","",CONCATENATE("  - &amp;OrganizationID008 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$12,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$12,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$12,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$12,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$12,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>IF('People and Organizations'!$A$13="","",CONCATENATE("  - &amp;OrganizationID009 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$13,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$13,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$13,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$13,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$13,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF('People and Organizations'!$A$14="","",CONCATENATE("  - &amp;OrganizationID010 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$14,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$14,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$14,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$14,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$14,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A9)))</formula>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5663,1684 +7658,356 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I228"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>492</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>495</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H101" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H102" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H104" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H107" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H108" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H109" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H110" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H112" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H113" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H114" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H115" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H116" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H117" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H118" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H119" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H120" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H121" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H122" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H123" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H124" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H125" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H127" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H128" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H129" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H130" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H131" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H132" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H133" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H134" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H135" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H136" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H137" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H138" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H139" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H140" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H141" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H142" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H143" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H144" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H145" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H146" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H147" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H148" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H149" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H150" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H151" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H152" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H153" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H154" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H155" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H156" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H157" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H158" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H159" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H160" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H161" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H162" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H163" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H164" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H165" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H166" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H167" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H168" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H169" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H170" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H171" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H172" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H173" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H174" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H175" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H176" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H177" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H178" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H179" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H180" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H181" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H182" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H183" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H184" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H185" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H186" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H187" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H188" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H189" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H190" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H191" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H192" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H193" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H194" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H195" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H196" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H197" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H198" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H199" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H200" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H201" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H202" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H203" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H204" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H205" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H206" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H207" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H208" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H209" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H210" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H211" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H212" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H213" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H214" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H215" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H216" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H217" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H218" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H219" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H220" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H221" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H222" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H223" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H224" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H226" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H227" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H228" t="s">
-        <v>389</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>'YODA File - with Whitespace'!A1</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'YODA File - with Whitespace'!A2</f>
+        <v>YODA: {Version: 1.0.0, Profile: TimeSeries}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'YODA File - with Whitespace'!A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>'YODA File - with Whitespace'!A4</f>
+        <v>Dataset:</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>'YODA File - with Whitespace'!A5</f>
+        <v xml:space="preserve">  DataSetUUID:  ~</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>'YODA File - with Whitespace'!A6</f>
+        <v xml:space="preserve">  DataSetTypeCV:  "Climate"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>'YODA File - with Whitespace'!A7</f>
+        <v xml:space="preserve">  DataSetCode:  "TWDEF_AirTemp"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>'YODA File - with Whitespace'!A8</f>
+        <v xml:space="preserve">  DataSetCode:  "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>'YODA File - with Whitespace'!A9</f>
+        <v xml:space="preserve">  DataSetAbstract:  "Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period."</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'YODA File - with Whitespace'!A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'YODA File - with Whitespace'!A11</f>
+        <v>People:</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>'YODA File - with Whitespace'!A12</f>
+        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh", PersonOrcID:  ""}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>'YODA File - with Whitespace'!A13</f>
+        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones", PersonOrcID:  ""}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>'YODA File - with Whitespace'!A14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>'YODA File - with Whitespace'!A15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>'YODA File - with Whitespace'!A16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>'YODA File - with Whitespace'!A17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>'YODA File - with Whitespace'!A18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>'YODA File - with Whitespace'!A19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'YODA File - with Whitespace'!A20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>'YODA File - with Whitespace'!A21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>'YODA File - with Whitespace'!A22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>'YODA File - with Whitespace'!A23</f>
+        <v>Organizations:</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>'YODA File - with Whitespace'!A24</f>
+        <v xml:space="preserve">  - &amp;OrganizationID001 {OrganizationTypeCV:  "University", OrganizationCode:  "USU", OrganizationName:  "Utah State University", OrganizationDescription:  "", OrganizationLink:  ""}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>'YODA File - with Whitespace'!A25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'YODA File - with Whitespace'!A26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'YODA File - with Whitespace'!A27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>'YODA File - with Whitespace'!A28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'YODA File - with Whitespace'!A29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'YODA File - with Whitespace'!A30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>'YODA File - with Whitespace'!A31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'YODA File - with Whitespace'!A32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'YODA File - with Whitespace'!A33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>'YODA File - with Whitespace'!A34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>'YODA File - with Whitespace'!A35</f>
+        <v>Affiliations:</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>'YODA File - with Whitespace'!A36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>'YODA File - with Whitespace'!A37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>'YODA File - with Whitespace'!A38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>'YODA File - with Whitespace'!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>'YODA File - with Whitespace'!A40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>'YODA File - with Whitespace'!A41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>'YODA File - with Whitespace'!A42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>'YODA File - with Whitespace'!A43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>'YODA File - with Whitespace'!A44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>'YODA File - with Whitespace'!A45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>'YODA File - with Whitespace'!A46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>'YODA File - with Whitespace'!A47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>'YODA File - with Whitespace'!A48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>'YODA File - with Whitespace'!A49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>'YODA File - with Whitespace'!A50</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:A50">
+    <filterColumn colId="0">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="- &amp;OrganizationID001 {OrganizationTypeCV:  &quot;University&quot;, OrganizationCode:  &quot;USU&quot;, OrganizationName:  &quot;Utah State University&quot;, OrganizationDescription:  &quot;&quot;, OrganizationLink:  &quot;&quot;}"/>
+            <x14:filter val="- &amp;PersonID001 {PersonFirstName:  &quot;Jeffrey&quot;, PersonMiddleName:  &quot;S.&quot;, PersonLastName:  &quot;Horsburgh&quot;, PersonOrcID:  &quot;&quot;}"/>
+            <x14:filter val="- &amp;PersonID002 {PersonFirstName:  &quot;Amber&quot;, PersonMiddleName:  &quot;&quot;, PersonLastName:  &quot;Spackman Jones&quot;, PersonOrcID:  &quot;&quot;}"/>
+            <x14:filter val="Affiliations:"/>
+            <x14:filter val="Dataset:"/>
+            <x14:filter val="DataSetAbstract:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period.&quot;"/>
+            <x14:filter val="DataSetCode:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
+            <x14:filter val="DataSetCode:  &quot;TWDEF_AirTemp&quot;"/>
+            <x14:filter val="DataSetTypeCV:  &quot;Climate&quot;"/>
+            <x14:filter val="DataSetUUID:  ~"/>
+            <x14:filter val="Organizations:"/>
+            <x14:filter val="People:"/>
+            <x14:filter val="YODA: {Version: 1.0.0, Profile: TimeSeries}"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="- &amp;OrganizationID001 {OrganizationTypeCV:  &quot;University&quot;, OrganizationCode:  &quot;USU&quot;, OrganizationName:  &quot;Utah State University&quot;, OrganizationDescription:  &quot;&quot;, OrganizationLink:  &quot;&quot;}"/>
+            <filter val="- &amp;PersonID001 {PersonFirstName:  &quot;Jeffrey&quot;, PersonMiddleName:  &quot;S.&quot;, PersonLastName:  &quot;Horsburgh&quot;, PersonOrcID:  &quot;&quot;}"/>
+            <filter val="- &amp;PersonID002 {PersonFirstName:  &quot;Amber&quot;, PersonMiddleName:  &quot;&quot;, PersonLastName:  &quot;Spackman Jones&quot;, PersonOrcID:  &quot;&quot;}"/>
+            <filter val="Affiliations:"/>
+            <filter val="Dataset:"/>
+            <filter val="DataSetCode:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
+            <filter val="DataSetCode:  &quot;TWDEF_AirTemp&quot;"/>
+            <filter val="DataSetTypeCV:  &quot;Climate&quot;"/>
+            <filter val="DataSetUUID:  ~"/>
+            <filter val="Organizations:"/>
+            <filter val="People:"/>
+            <filter val="YODA: {Version: 1.0.0, Profile: TimeSeries}"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/YODA_TimeSeries_TEMPLATE_DRAFT.xlsx
+++ b/YODA_TimeSeries_TEMPLATE_DRAFT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="20610" windowHeight="8130" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="20610" windowHeight="8130" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="People and Organizations" sheetId="7" r:id="rId1"/>
@@ -20,9 +20,20 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'YODA File - Clean'!$A$1:$A$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'YODA File - with Whitespace'!$A$1:$A$35</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="8">'YODA File - Clean'!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="8">'YODA File - Clean'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'YODA File - with Whitespace'!$A$1:$A$31</definedName>
+    <definedName name="Boolean">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("Boolean",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[Boolean]),1)</definedName>
+    <definedName name="DataSetTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("DataSetTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[DataSetTypeCV]),1)</definedName>
+    <definedName name="ElevationDatumCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("ElevationDatumCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[ElevationDatumCV]),1)</definedName>
+    <definedName name="LatLonDatumID">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("LatLonDatumID",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[LatLonDatumID]),1)</definedName>
+    <definedName name="ListOfVocabularies">'Controlled Vocabularies'!$1:$1</definedName>
+    <definedName name="NotApplicable">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("NotApplicable",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[NotApplicable]),1)</definedName>
+    <definedName name="OrganizationTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("OrganizationTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[OrganizationTypeCV]),1)</definedName>
+    <definedName name="RelationshipTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("RelationshipTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[RelationshipTypeCV]),1)</definedName>
+    <definedName name="SampledMediumCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("SampledMediumCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[SampledMediumCV]),1)</definedName>
+    <definedName name="SamplingFeatureGeotypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("SamplingFeatureGeotypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[SamplingFeatureGeotypeCV]),1)</definedName>
+    <definedName name="SamplingFeatureTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("SamplingFeatureTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[SamplingFeatureTypeCV]),1)</definedName>
+    <definedName name="SiteTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("SiteTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[SiteTypeCV]),1)</definedName>
+    <definedName name="SpecimenTypeCV">OFFSET(INDIRECT((CONCATENATE("'Controlled Vocabularies'!$",CHAR(MATCH("SpecimenTypeCV",ListOfVocabularies,0)+64),"$2"))),0,0,COUNTA(ControlledVocabularies[SpecimenTypeCV]),1)</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +50,7 @@
     <author>Sara Geleskie Damiano</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +86,7 @@
     <author>Sara Geleskie Damiano</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="K8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="L8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +148,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Only applies to SPECIMENS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="604">
   <si>
     <t>Dataset UUID</t>
   </si>
@@ -178,9 +202,6 @@
     <t>Publication Year</t>
   </si>
   <si>
-    <t>Dataset Types</t>
-  </si>
-  <si>
     <t>Biota</t>
   </si>
   <si>
@@ -244,30 +265,15 @@
     <t>Sampling Feature Type</t>
   </si>
   <si>
-    <t>Sampling Feature Code</t>
-  </si>
-  <si>
-    <t>Sampling Feature Name</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>LatLonDatum</t>
-  </si>
-  <si>
     <t>Elevation_m</t>
   </si>
   <si>
-    <t>Sampling Feature Types</t>
-  </si>
-  <si>
-    <t>Site Types</t>
-  </si>
-  <si>
     <t>Elevation Datum</t>
   </si>
   <si>
@@ -334,9 +340,6 @@
     <t>Water quality station</t>
   </si>
   <si>
-    <t>Sampling Feature Geo Types</t>
-  </si>
-  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1336,15 +1339,9 @@
     <t>NGVD29</t>
   </si>
   <si>
-    <t>Site/Specimen Type</t>
-  </si>
-  <si>
     <t>Instructions:  In the yellow boxes, enter the metadata for all of the sampling features (sites, specimens, etc) included in this dataset.</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -1570,9 +1567,6 @@
     <t>Organization Link</t>
   </si>
   <si>
-    <t>Organization Types</t>
-  </si>
-  <si>
     <t>University</t>
   </si>
   <si>
@@ -1693,9 +1687,6 @@
     <t>Specimen Medium</t>
   </si>
   <si>
-    <t>Specimen Types</t>
-  </si>
-  <si>
     <t>NOTE:  This template is limited to a single spatial reference!  To include multiple spatial references, you must generate your YODA file in some other way.</t>
   </si>
   <si>
@@ -1705,9 +1696,6 @@
     <t>YODA: {Version: 1.0.0, Profile: TimeSeries}</t>
   </si>
   <si>
-    <t>Dataset:</t>
-  </si>
-  <si>
     <t>TWDEF_AirTemp</t>
   </si>
   <si>
@@ -1726,34 +1714,283 @@
     <t>Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200</t>
   </si>
   <si>
-    <t>TODO:  Add DOI for citation</t>
-  </si>
-  <si>
     <t>NOTE:  Only relationship allowed between versions is "IsNewVersionOf"</t>
   </si>
   <si>
-    <t>TODO: Add relationship between dataset and citation! - ONLY ALLOW "IsPartOf" or "IsAllOf" (no term for all of)</t>
-  </si>
-  <si>
-    <t>NOTE:  This would not be compatible with two different people of the same last name. - Make concatenated field to pull from with full name.</t>
-  </si>
-  <si>
-    <t>Add "IsFieldSpecimen" field?</t>
-  </si>
-  <si>
-    <t>TODO:  Reblock the specimen and site specific fields</t>
-  </si>
-  <si>
     <t>TODO: Allow for related sampling features.  Possibly include only parents with no spatial offsets  in this table but then allow more relationships in the related features table.</t>
   </si>
   <si>
-    <t>NOTE:  Add missing value warnings here</t>
-  </si>
-  <si>
     <t>Organizations:</t>
   </si>
   <si>
     <t>Affiliations:</t>
+  </si>
+  <si>
+    <t>NOTE:  At this time this template does not include detailed information on affiliations.  To include that, you must generate your YODA file with some other method.</t>
+  </si>
+  <si>
+    <t>NOTE:  To include more than 10 people or organizations, you must also generate your YODA file with some other method.</t>
+  </si>
+  <si>
+    <t>Citation DOI</t>
+  </si>
+  <si>
+    <t>Dataset Citation Relationship</t>
+  </si>
+  <si>
+    <t>IsAllOf</t>
+  </si>
+  <si>
+    <t>IsPartOf</t>
+  </si>
+  <si>
+    <t>isChildOf</t>
+  </si>
+  <si>
+    <t>isRelatedTo</t>
+  </si>
+  <si>
+    <t>IsCitedBy</t>
+  </si>
+  <si>
+    <t>Cites</t>
+  </si>
+  <si>
+    <t>IsSupplementTo</t>
+  </si>
+  <si>
+    <t>IsSupplementedBy</t>
+  </si>
+  <si>
+    <t>IsContinuedBy</t>
+  </si>
+  <si>
+    <t>Continues</t>
+  </si>
+  <si>
+    <t>IsNewVersionOf</t>
+  </si>
+  <si>
+    <t>IsPreviousVersionOf</t>
+  </si>
+  <si>
+    <t>HasPart</t>
+  </si>
+  <si>
+    <t>IsReferencedBy</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>IsDocumentedBy</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>IsCompiledBy</t>
+  </si>
+  <si>
+    <t>Compiles</t>
+  </si>
+  <si>
+    <t>isVariantFormOf</t>
+  </si>
+  <si>
+    <t>isOriginalFormOf</t>
+  </si>
+  <si>
+    <t>isDerivedFrom</t>
+  </si>
+  <si>
+    <t>wasCollectedAt</t>
+  </si>
+  <si>
+    <t>isSubsampleOf</t>
+  </si>
+  <si>
+    <t>isFractionOf</t>
+  </si>
+  <si>
+    <t>IsInclusionOf</t>
+  </si>
+  <si>
+    <t>IsHostMineralOf</t>
+  </si>
+  <si>
+    <t>IsHostRockOf</t>
+  </si>
+  <si>
+    <t>iUTAH Modeling and Data Federation</t>
+  </si>
+  <si>
+    <t>http://repository.iutahepscor.org/dataset/iutah-gamut-network-raw-data-at-tw-daniels-forest-climate-site-lr-twdef-c</t>
+  </si>
+  <si>
+    <t>AuthorList:</t>
+  </si>
+  <si>
+    <t>Citation: &amp;CitationID001</t>
+  </si>
+  <si>
+    <t>TODO:  Add warnings for missing values!</t>
+  </si>
+  <si>
+    <t>TODO:  Make compatible with two people with the same last name.</t>
+  </si>
+  <si>
+    <t>TODO:  Make compatible with people with the same last name.</t>
+  </si>
+  <si>
+    <t>Dataset: &amp;DataSetID001</t>
+  </si>
+  <si>
+    <t>DataSetCitations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DataSetID: *DataSetID001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CitationID: *CitationID001</t>
+  </si>
+  <si>
+    <t>Site Type</t>
+  </si>
+  <si>
+    <t>Specimen Type</t>
+  </si>
+  <si>
+    <t>Is Field Specimen?</t>
+  </si>
+  <si>
+    <t>Use these fields for Specimens</t>
+  </si>
+  <si>
+    <t>Use these fields for Sites</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>RB_KF_BA</t>
+  </si>
+  <si>
+    <t>RB_RBG_BA</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D3236</t>
+  </si>
+  <si>
+    <t>Knowlton Fork at Knowlton Fork Basic Aquatic</t>
+  </si>
+  <si>
+    <t>Red Butte Creek at Red Butte Gate Basic Aquatic</t>
+  </si>
+  <si>
+    <t>Specimen D101</t>
+  </si>
+  <si>
+    <t>Specimen D102</t>
+  </si>
+  <si>
+    <t>Specimen D3236</t>
+  </si>
+  <si>
+    <t>Specimen 524</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Description</t>
+  </si>
+  <si>
+    <t>Feature Code</t>
+  </si>
+  <si>
+    <t>Feature Geometry</t>
+  </si>
+  <si>
+    <t>LR_TWDEF_C</t>
+  </si>
+  <si>
+    <t>Climate Station at TW Daniels Experimental Forest</t>
+  </si>
+  <si>
+    <t>This is a continuous atmospheric monitoring site that is part of the Gradients Along Mountain to Urban Transitions (GAMUT) monitoring network.</t>
+  </si>
+  <si>
+    <t>OrganizationTypeCV</t>
+  </si>
+  <si>
+    <t>DataSetTypeCV</t>
+  </si>
+  <si>
+    <t>SamplingFeatureGeotypeCV</t>
+  </si>
+  <si>
+    <t>SiteTypeCV</t>
+  </si>
+  <si>
+    <t>SpecimenTypeCV</t>
+  </si>
+  <si>
+    <t>ElevationDatumCV</t>
+  </si>
+  <si>
+    <t>LatLonDatumID</t>
+  </si>
+  <si>
+    <t>RelationshipTypeCV</t>
+  </si>
+  <si>
+    <t>SamplingFeatureTypeCV</t>
+  </si>
+  <si>
+    <t>NotApplicable</t>
+  </si>
+  <si>
+    <t>SampledMediumCV</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Liquid aqueous</t>
+  </si>
+  <si>
+    <t>Liquid organic</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Particulate</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Sediment</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Organism</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +2065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2311,6 +2548,78 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2326,7 +2635,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2344,7 +2653,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2366,7 +2674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2408,6 +2715,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2415,7 +2767,36 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2682,6 +3063,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ControlledVocabularies" displayName="ControlledVocabularies" ref="A1:L500" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L500"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="OrganizationTypeCV"/>
+    <tableColumn id="2" name="DataSetTypeCV"/>
+    <tableColumn id="3" name="SamplingFeatureTypeCV"/>
+    <tableColumn id="4" name="SamplingFeatureGeotypeCV"/>
+    <tableColumn id="5" name="SiteTypeCV"/>
+    <tableColumn id="6" name="SpecimenTypeCV"/>
+    <tableColumn id="7" name="ElevationDatumCV"/>
+    <tableColumn id="8" name="LatLonDatumID"/>
+    <tableColumn id="9" name="NotApplicable"/>
+    <tableColumn id="10" name="RelationshipTypeCV"/>
+    <tableColumn id="11" name="Boolean"/>
+    <tableColumn id="12" name="SampledMediumCV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2971,252 +3373,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="7" max="7" width="101.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="H14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>522</v>
-      </c>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="45"/>
+      <c r="G21" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="45"/>
+      <c r="E23" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -3225,8 +3604,8 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="45"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -3235,8 +3614,8 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="45"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -3245,1731 +3624,1914 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="45"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="43"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B14">
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B18">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E27">
-      <formula1>$C$5:$C$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E31">
+      <formula1>OFFSET($C$9,0,0,COUNTA($C$9:$C$18),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A18">
+      <formula1>OrganizationTypeCV</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId1"/>
+    <hyperlink ref="F23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$A$2:$A$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>A5:A14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>523</v>
+      </c>
+      <c r="L4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>524</v>
+      </c>
+      <c r="L5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>525</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>527</v>
+      </c>
+      <c r="L8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
+        <v>529</v>
+      </c>
+      <c r="L10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" t="s">
+        <v>530</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>472</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>391</v>
-      </c>
-      <c r="H3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" t="s">
+        <v>520</v>
+      </c>
+      <c r="L13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>473</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" t="s">
+        <v>531</v>
+      </c>
+      <c r="L14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>474</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>532</v>
+      </c>
+      <c r="L15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>475</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>533</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>476</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>477</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>478</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>479</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>480</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>481</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>482</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>483</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>484</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>485</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>486</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H27" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="J27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>87</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F28" t="s">
         <v>136</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="J28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" t="s">
         <v>137</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H29" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>492</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="J29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" t="s">
         <v>138</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F31" t="s">
         <v>139</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>494</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F32" t="s">
         <v>140</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H32" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>495</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H41" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H45" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H46" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H49" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4980,220 +5542,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="D16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="47" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="47" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="D13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="D18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>2</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>3</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="B30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>DataSetTypeCV</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>RelationshipTypeCV</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$B$2:$B$10</xm:f>
+            <xm:f>OFFSET('People and Organizations'!$C$22,0,0,COUNTA('People and Organizations'!$C$22:$C$31),1)</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'People and Organizations'!$C$18:$C$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>B18:B27</xm:sqref>
+          <xm:sqref>B21:B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5206,10 +5797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,936 +5808,1550 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="61" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="61" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="F5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="72" t="s">
+        <v>562</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="N7" s="72" t="s">
+        <v>561</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="L8" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="71"/>
+      <c r="N8" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="str">
-        <f t="shared" ref="H9:I28" si="0">IF($B9="site","ENTER VALUE","~")</f>
-        <v>~</v>
-      </c>
-      <c r="I9" s="3" t="str">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="3">
+        <v>40.809522000000001</v>
+      </c>
+      <c r="L9" s="63">
+        <v>-111.765472</v>
+      </c>
+      <c r="M9" s="69"/>
+      <c r="N9" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>IF($B9="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="6">
+        <v>40.774228000000001</v>
+      </c>
+      <c r="L10" s="64">
+        <v>-111.817025</v>
+      </c>
+      <c r="M10" s="69"/>
+      <c r="N10" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f>IF($B10="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>571</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f t="shared" ref="K9:L28" si="0">IF($B11="site","ENTER VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="L11" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" ref="J9:J46" si="1">IF($B9="Specimen","ENTER VALUE","~")</f>
-        <v>ENTER VALUE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6" t="str">
+      <c r="M11" s="69"/>
+      <c r="N11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P11" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="K12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="L12" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6" t="str">
+      <c r="M12" s="69"/>
+      <c r="N12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>573</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="K13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="L13" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6" t="str">
+      <c r="M13" s="69"/>
+      <c r="N13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6">
+        <v>524</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>574</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="K14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="L14" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="69"/>
+      <c r="N14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P14" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="I15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>~</v>
-      </c>
-      <c r="J15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>580</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64">
+        <v>2629.2</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6">
+        <v>41.864804999999997</v>
+      </c>
+      <c r="L15" s="64">
+        <v>-111.50749399999999</v>
+      </c>
+      <c r="M15" s="69"/>
+      <c r="N15" s="7" t="str">
+        <f t="shared" ref="N12:N46" si="1">IF($B15="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="O15" s="7" t="str">
+        <f>IF($B15="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f>IF($B15="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6" t="str">
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="67" t="str">
+        <f>IF($B16="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="L16" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="M16" s="69"/>
+      <c r="N16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O16" s="7" t="str">
+        <f>IF($B16="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f>IF($B16="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="6" t="str">
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="67" t="str">
+        <f>IF($B17="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="L17" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="M17" s="69"/>
+      <c r="N17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O17" s="7" t="str">
+        <f>IF($B17="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f>IF($B17="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="6" t="str">
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="67" t="str">
+        <f>IF($B18="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="L18" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="M18" s="69"/>
+      <c r="N18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18" s="7" t="str">
+        <f>IF($B18="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f>IF($B18="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6" t="str">
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="67" t="str">
+        <f>IF($B19="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="L19" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="M19" s="69"/>
+      <c r="N19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O19" s="7" t="str">
+        <f>IF($B19="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f>IF($B19="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6" t="str">
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="67" t="str">
+        <f>IF($B20="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="L20" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="M20" s="69"/>
+      <c r="N20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O20" s="7" t="str">
+        <f>IF($B20="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f>IF($B20="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6" t="str">
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="67" t="str">
+        <f>IF($B21="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="L21" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="M21" s="69"/>
+      <c r="N21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O21" s="7" t="str">
+        <f>IF($B21="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f>IF($B21="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6" t="str">
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="67" t="str">
+        <f>IF($B22="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="L22" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="M22" s="69"/>
+      <c r="N22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O22" s="7" t="str">
+        <f>IF($B22="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f>IF($B22="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6" t="str">
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="67" t="str">
+        <f>IF($B23="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="L23" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J23" s="7" t="str">
+      <c r="M23" s="69"/>
+      <c r="N23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O23" s="7" t="str">
+        <f>IF($B23="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f>IF($B23="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6" t="str">
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="67" t="str">
+        <f>IF($B24="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="L24" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J24" s="7" t="str">
+      <c r="M24" s="69"/>
+      <c r="N24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O24" s="7" t="str">
+        <f>IF($B24="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P24" s="7" t="str">
+        <f>IF($B24="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6" t="str">
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="67" t="str">
+        <f>IF($B25="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="L25" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="M25" s="69"/>
+      <c r="N25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O25" s="7" t="str">
+        <f>IF($B25="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f>IF($B25="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6" t="str">
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="67" t="str">
+        <f>IF($B26="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="L26" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="M26" s="69"/>
+      <c r="N26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O26" s="7" t="str">
+        <f>IF($B26="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P26" s="7" t="str">
+        <f>IF($B26="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="6" t="str">
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="67" t="str">
+        <f>IF($B27="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="L27" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J27" s="7" t="str">
+      <c r="M27" s="69"/>
+      <c r="N27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O27" s="7" t="str">
+        <f>IF($B27="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f>IF($B27="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="6" t="str">
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="67" t="str">
+        <f>IF($B28="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="L28" s="64" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="M28" s="69"/>
+      <c r="N28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O28" s="7" t="str">
+        <f>IF($B28="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f>IF($B28="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="6" t="str">
-        <f t="shared" ref="H29:I46" si="2">IF($B29="site","ENTER VALUE","~")</f>
-        <v>~</v>
-      </c>
-      <c r="I29" s="6" t="str">
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="67" t="str">
+        <f>IF($B29="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K29" s="6" t="str">
+        <f t="shared" ref="K29:L46" si="2">IF($B29="site","ENTER VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="L29" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J29" s="7" t="str">
+      <c r="M29" s="69"/>
+      <c r="N29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O29" s="7" t="str">
+        <f>IF($B29="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P29" s="7" t="str">
+        <f>IF($B29="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6" t="str">
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="67" t="str">
+        <f>IF($B30="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K30" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="L30" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J30" s="7" t="str">
+      <c r="M30" s="69"/>
+      <c r="N30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O30" s="7" t="str">
+        <f>IF($B30="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f>IF($B30="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="6" t="str">
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="67" t="str">
+        <f>IF($B31="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K31" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="L31" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J31" s="7" t="str">
+      <c r="M31" s="69"/>
+      <c r="N31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O31" s="7" t="str">
+        <f>IF($B31="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f>IF($B31="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="6" t="str">
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="67" t="str">
+        <f>IF($B32="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="L32" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J32" s="7" t="str">
+      <c r="M32" s="69"/>
+      <c r="N32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O32" s="7" t="str">
+        <f>IF($B32="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f>IF($B32="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="6" t="str">
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="67" t="str">
+        <f>IF($B33="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="L33" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J33" s="7" t="str">
+      <c r="M33" s="69"/>
+      <c r="N33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O33" s="7" t="str">
+        <f>IF($B33="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P33" s="7" t="str">
+        <f>IF($B33="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="6" t="str">
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="67" t="str">
+        <f>IF($B34="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="L34" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J34" s="7" t="str">
+      <c r="M34" s="69"/>
+      <c r="N34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O34" s="7" t="str">
+        <f>IF($B34="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P34" s="7" t="str">
+        <f>IF($B34="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="6" t="str">
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="67" t="str">
+        <f>IF($B35="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="L35" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J35" s="7" t="str">
+      <c r="M35" s="69"/>
+      <c r="N35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O35" s="7" t="str">
+        <f>IF($B35="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P35" s="7" t="str">
+        <f>IF($B35="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="6" t="str">
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="67" t="str">
+        <f>IF($B36="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="L36" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J36" s="7" t="str">
+      <c r="M36" s="69"/>
+      <c r="N36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O36" s="7" t="str">
+        <f>IF($B36="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P36" s="7" t="str">
+        <f>IF($B36="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="6" t="str">
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="67" t="str">
+        <f>IF($B37="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K37" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="L37" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J37" s="7" t="str">
+      <c r="M37" s="69"/>
+      <c r="N37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O37" s="7" t="str">
+        <f>IF($B37="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P37" s="7" t="str">
+        <f>IF($B37="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="6" t="str">
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="67" t="str">
+        <f>IF($B38="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K38" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="L38" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J38" s="7" t="str">
+      <c r="M38" s="69"/>
+      <c r="N38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O38" s="7" t="str">
+        <f>IF($B38="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P38" s="7" t="str">
+        <f>IF($B38="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="6" t="str">
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="67" t="str">
+        <f>IF($B39="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K39" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="L39" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J39" s="7" t="str">
+      <c r="M39" s="69"/>
+      <c r="N39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O39" s="7" t="str">
+        <f>IF($B39="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P39" s="7" t="str">
+        <f>IF($B39="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="6" t="str">
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="67" t="str">
+        <f>IF($B40="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K40" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="L40" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J40" s="7" t="str">
+      <c r="M40" s="69"/>
+      <c r="N40" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O40" s="7" t="str">
+        <f>IF($B40="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P40" s="7" t="str">
+        <f>IF($B40="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="6" t="str">
+      <c r="E41" s="77"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="67" t="str">
+        <f>IF($B41="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K41" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="L41" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J41" s="7" t="str">
+      <c r="M41" s="69"/>
+      <c r="N41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O41" s="7" t="str">
+        <f>IF($B41="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P41" s="7" t="str">
+        <f>IF($B41="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="6" t="str">
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="67" t="str">
+        <f>IF($B42="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K42" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="L42" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J42" s="7" t="str">
+      <c r="M42" s="69"/>
+      <c r="N42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O42" s="7" t="str">
+        <f>IF($B42="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P42" s="7" t="str">
+        <f>IF($B42="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="6" t="str">
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="67" t="str">
+        <f>IF($B43="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K43" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="L43" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J43" s="7" t="str">
+      <c r="M43" s="69"/>
+      <c r="N43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O43" s="7" t="str">
+        <f>IF($B43="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P43" s="7" t="str">
+        <f>IF($B43="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="6" t="str">
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="67" t="str">
+        <f>IF($B44="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K44" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="L44" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J44" s="7" t="str">
+      <c r="M44" s="69"/>
+      <c r="N44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O44" s="7" t="str">
+        <f>IF($B44="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P44" s="7" t="str">
+        <f>IF($B44="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="6" t="str">
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="67" t="str">
+        <f>IF($B45="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K45" s="6" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="L45" s="64" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J45" s="7" t="str">
+      <c r="M45" s="69"/>
+      <c r="N45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O45" s="7" t="str">
+        <f>IF($B45="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P45" s="7" t="str">
+        <f>IF($B45="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9" t="str">
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="8" t="str">
+        <f>IF($B46="Site","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="K46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="I46" s="9" t="str">
+      <c r="L46" s="65" t="str">
         <f t="shared" si="2"/>
         <v>~</v>
       </c>
-      <c r="J46" s="10" t="str">
+      <c r="M46" s="69"/>
+      <c r="N46" s="81" t="str">
         <f t="shared" si="1"/>
         <v>~</v>
       </c>
+      <c r="O46" s="10" t="str">
+        <f>IF($B46="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
+      <c r="P46" s="10" t="str">
+        <f>IF($B46="Specimen","SELECT VALUE","~")</f>
+        <v>~</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
+  <conditionalFormatting sqref="J9:P46">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="SELECT">
+      <formula>NOT(ISERROR(SEARCH("SELECT",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>ElevationDatumCV</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>LatLonDatumID</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B46">
+      <formula1>SamplingFeatureTypeCV</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C46">
+      <formula1>SamplingFeatureGeotypeCV</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="This column only applies to sampling features that are either sites or specimens." sqref="J9:J46">
+      <formula1>IF(B9="Site",SiteTypeCV,NotApplicable)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O46">
+      <formula1>IF(B9="Specimen",SampledMediumCV,NotApplicable)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:P46">
+      <formula1>IF(B9="Specimen",Boolean,NotApplicable)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N46">
+      <formula1>IF(B9="Specimen",SpecimenTypeCV,NotApplicable)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$G$2:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$H$2:$H$228</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$C$2:$C$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9:B46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$D$2:$D$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C9:C46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="This column only applies to sampling features that are either sites or specimens.">
-          <x14:formula1>
-            <xm:f>IF(B9="Site",'Controlled Vocabularies'!$E$2:$E$51,IF(B9="Specimen",'Controlled Vocabularies'!$F$2:$F$45,'Controlled Vocabularies'!$I$2))</xm:f>
-          </x14:formula1>
-          <xm:sqref>G9:G46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Controlled Vocabularies'!$F$2:$F$46</xm:f>
-          </x14:formula1>
-          <xm:sqref>J9:J46</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -6202,89 +7407,89 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="A11" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7188,157 +8393,157 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" t="s">
         <v>414</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>415</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>416</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>417</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>419</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>420</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>421</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>422</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>423</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>424</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>425</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>426</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>427</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>428</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>429</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>430</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>431</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>432</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>433</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>434</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>435</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>436</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>437</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>439</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>440</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>441</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>442</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>443</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>444</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>445</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>446</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>447</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>448</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>449</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>450</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AU1" t="s">
         <v>451</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AV1" t="s">
         <v>452</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AW1" t="s">
         <v>453</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AX1" t="s">
         <v>454</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AY1" t="s">
         <v>455</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>463</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7353,298 +8558,474 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>516</v>
+      <c r="A4" t="str">
+        <f>CONCATENATE("  DataSetUUID:  ",IF('Dataset Citation'!$B$5="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$5,CHAR(34))))</f>
+        <v xml:space="preserve">  DataSetUUID:  ~</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>CONCATENATE("  DataSetUUID:  ",IF('Dataset Citation'!$B$4="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$4,CHAR(34))))</f>
-        <v xml:space="preserve">  DataSetUUID:  ~</v>
+        <f>IF('Dataset Citation'!$B$6="","PLEASE FILL IN THE DATASET TYPE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetTypeCV:  ",CHAR(34),'Dataset Citation'!$B$6,CHAR(34)))</f>
+        <v xml:space="preserve">  DataSetTypeCV:  "Climate"</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF('Dataset Citation'!$B$5="","PLEASE FILL IN THE DATASET TYPE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetTypeCV:  ",CHAR(34),'Dataset Citation'!$B$5,CHAR(34)))</f>
-        <v xml:space="preserve">  DataSetTypeCV:  "Climate"</v>
+        <f>IF('Dataset Citation'!$B$7="","PLEASE FILL IN THE DATASET CODE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$7,CHAR(34)))</f>
+        <v xml:space="preserve">  DataSetCode:  "TWDEF_AirTemp"</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF('Dataset Citation'!$B$6="","PLEASE FILL IN THE DATASET CODE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$6,CHAR(34)))</f>
-        <v xml:space="preserve">  DataSetCode:  "TWDEF_AirTemp"</v>
+        <f>IF('Dataset Citation'!$B$8="","PLEASE FILL IN THE DATASET TITLE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$8,CHAR(34)))</f>
+        <v xml:space="preserve">  DataSetCode:  "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF('Dataset Citation'!$B$7="","PLEASE FILL IN THE DATASET TITLE IN THE DATASET CITATION TAB",CONCATENATE("  DataSetCode:  ",CHAR(34),'Dataset Citation'!$B$7,CHAR(34)))</f>
-        <v xml:space="preserve">  DataSetCode:  "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
+        <f>CONCATENATE("  DataSetAbstract:  ",IF('Dataset Citation'!$B$9="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$9,CHAR(34))))</f>
+        <v xml:space="preserve">  DataSetAbstract:  "Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period."</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>CONCATENATE("  DataSetAbstract:  ",IF('Dataset Citation'!$B$8="","~",CONCATENATE(CHAR(34),'Dataset Citation'!$B$8,CHAR(34))))</f>
-        <v xml:space="preserve">  DataSetAbstract:  "Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period."</v>
+      <c r="A9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>CONCATENATE("  - &amp;PersonID001 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$22,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$22,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$22,CHAR(34),"}")</f>
+        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh"}</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>520</v>
+      <c r="A11" t="str">
+        <f>IF('People and Organizations'!$A$23="","",CONCATENATE("  - &amp;PersonID002 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$23,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$23,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$23,CHAR(34),"}"))</f>
+        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones"}</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>CONCATENATE("  - &amp;PersonID001 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$18,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$18,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$18,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$18,CHAR(34),"}")</f>
-        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh", PersonOrcID:  ""}</v>
+        <f>IF('People and Organizations'!$A$24="","",CONCATENATE("  - &amp;PersonID003 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$24,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$24,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$24,CHAR(34),"}"))</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF('People and Organizations'!$A$19="","",CONCATENATE("  - &amp;PersonID002 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$19,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$19,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$19,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$19,CHAR(34),"}"))</f>
-        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones", PersonOrcID:  ""}</v>
+        <f>IF('People and Organizations'!$A$25="","",CONCATENATE("  - &amp;PersonID004 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$25,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$25,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$25,CHAR(34),"}"))</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF('People and Organizations'!$A$20="","",CONCATENATE("  - &amp;PersonID003 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$20,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$20,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$20,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$20,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$26="","",CONCATENATE("  - &amp;PersonID005 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$26,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$26,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$26,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF('People and Organizations'!$A$21="","",CONCATENATE("  - &amp;PersonID004 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$21,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$21,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$21,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$21,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$27="","",CONCATENATE("  - &amp;PersonID006 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$27,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$27,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$27,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF('People and Organizations'!$A$22="","",CONCATENATE("  - &amp;PersonID005 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$22,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$22,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$22,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$22,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$28="","",CONCATENATE("  - &amp;PersonID007 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$28,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$28,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$28,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF('People and Organizations'!$A$23="","",CONCATENATE("  - &amp;PersonID006 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$23,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$23,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$23,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$23,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$29="","",CONCATENATE("  - &amp;PersonID008 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$29,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$29,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$29,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF('People and Organizations'!$A$24="","",CONCATENATE("  - &amp;PersonID007 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$24,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$24,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$24,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$24,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$30="","",CONCATENATE("  - &amp;PersonID009 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$30,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$30,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$30,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF('People and Organizations'!$A$25="","",CONCATENATE("  - &amp;PersonID008 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$25,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$25,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$25,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$25,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$31="","",CONCATENATE("  - &amp;PersonID010 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$31,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$31,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$31,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>IF('People and Organizations'!$A$26="","",CONCATENATE("  - &amp;PersonID009 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$26,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$26,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$26,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$26,CHAR(34),"}"))</f>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>CONCATENATE("  - &amp;OrganizationID001 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$9,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$9,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$9,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$9,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$9,CHAR(34),"}")</f>
+        <v xml:space="preserve">  - &amp;OrganizationID001 {OrganizationTypeCV:  "University", OrganizationCode:  "USU", OrganizationName:  "Utah State University", OrganizationDescription:  "", OrganizationLink:  ""}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF('People and Organizations'!$A$10="","",CONCATENATE("  - &amp;OrganizationID002 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$10,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$10,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$10,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$10,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$10,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>IF('People and Organizations'!$A$27="","",CONCATENATE("  - &amp;PersonID010 {","PersonFirstName:  ",CHAR(34),'People and Organizations'!$A$27,CHAR(34),", PersonMiddleName:  ",CHAR(34),'People and Organizations'!$B$27,CHAR(34),", PersonLastName:  ",CHAR(34),'People and Organizations'!$C$27,CHAR(34),", PersonOrcID:  ",CHAR(34),'People and Organizations'!$D$27,CHAR(34),"}"))</f>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF('People and Organizations'!$A$11="","",CONCATENATE("  - &amp;OrganizationID003 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$11,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$11,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$11,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$11,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$11,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>CONCATENATE("  - &amp;OrganizationID001 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$5,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$5,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$5,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$5,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$5,CHAR(34),"}")</f>
-        <v xml:space="preserve">  - &amp;OrganizationID001 {OrganizationTypeCV:  "University", OrganizationCode:  "USU", OrganizationName:  "Utah State University", OrganizationDescription:  "", OrganizationLink:  ""}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <f>IF('People and Organizations'!$A$12="","",CONCATENATE("  - &amp;OrganizationID004 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$12,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$12,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$12,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$12,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$12,CHAR(34),"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF('People and Organizations'!$A$6="","",CONCATENATE("  - &amp;OrganizationID002 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$6,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$6,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$6,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$6,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$6,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$13="","",CONCATENATE("  - &amp;OrganizationID005 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$13,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$13,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$13,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$13,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$13,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF('People and Organizations'!$A$7="","",CONCATENATE("  - &amp;OrganizationID003 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$7,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$7,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$7,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$7,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$7,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$14="","",CONCATENATE("  - &amp;OrganizationID006 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$14,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$14,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$14,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$14,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$14,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF('People and Organizations'!$A$8="","",CONCATENATE("  - &amp;OrganizationID004 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$8,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$8,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$8,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$8,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$8,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$15="","",CONCATENATE("  - &amp;OrganizationID007 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$15,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$15,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$15,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$15,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$15,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF('People and Organizations'!$A$9="","",CONCATENATE("  - &amp;OrganizationID005 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$9,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$9,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$9,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$9,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$9,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$16="","",CONCATENATE("  - &amp;OrganizationID008 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$16,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$16,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$16,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$16,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$16,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF('People and Organizations'!$A$10="","",CONCATENATE("  - &amp;OrganizationID006 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$10,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$10,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$10,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$10,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$10,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$17="","",CONCATENATE("  - &amp;OrganizationID009 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$17,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$17,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$17,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$17,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$17,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF('People and Organizations'!$A$11="","",CONCATENATE("  - &amp;OrganizationID007 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$11,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$11,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$11,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$11,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$11,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$18="","",CONCATENATE("  - &amp;OrganizationID010 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$18,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$18,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$18,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$18,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$18,CHAR(34),"}"))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>IF('People and Organizations'!$A$12="","",CONCATENATE("  - &amp;OrganizationID008 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$12,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$12,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$12,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$12,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$12,CHAR(34),"}"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>514</v>
+      </c>
+      <c r="B31" s="57"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF('People and Organizations'!$A$13="","",CONCATENATE("  - &amp;OrganizationID009 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$13,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$13,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$13,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$13,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$13,CHAR(34),"}"))</f>
-        <v/>
+        <f>CONCATENATE("  - &amp;AffiliationID001 {PersonID: *PersonID001, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$22,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$22,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$22,CHAR(34),", PersonLink: }")</f>
+        <v xml:space="preserve">  - &amp;AffiliationID001 {PersonID: *PersonID001, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: "jeff.horsburgh@usu.edu", PrimaryAddress: "Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200", PersonLink: }</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF('People and Organizations'!$A$14="","",CONCATENATE("  - &amp;OrganizationID010 {","OrganizationTypeCV:  ",CHAR(34),'People and Organizations'!$A$14,CHAR(34),", OrganizationCode:  ",CHAR(34),'People and Organizations'!$B$14,CHAR(34),", OrganizationName:  ",CHAR(34),'People and Organizations'!$C$14,CHAR(34),", OrganizationDescription:  ",CHAR(34),'People and Organizations'!$D$14,CHAR(34),", OrganizationLink:  ",CHAR(34),'People and Organizations'!$E$14,CHAR(34),"}"))</f>
+        <f>IF('People and Organizations'!$A$23="","",CONCATENATE("  - &amp;AffiliationID002 {PersonID: *PersonID002, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$23,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$23,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$23,CHAR(34),", PersonLink: }"))</f>
+        <v xml:space="preserve">  - &amp;AffiliationID002 {PersonID: *PersonID002, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: "amber.jones@usu.edu", PrimaryAddress: "Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200", PersonLink: }</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF('People and Organizations'!$A$24="","",CONCATENATE("  - &amp;AffiliationID003 {PersonID: *PersonID003, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$24,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$24,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$24,CHAR(34),", PersonLink: }"))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>532</v>
+      <c r="A35" t="str">
+        <f>IF('People and Organizations'!$A$25="","",CONCATENATE("  - &amp;AffiliationID004 {PersonID: *PersonID004, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$25,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$25,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$25,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF('People and Organizations'!$A$26="","",CONCATENATE("  - &amp;AffiliationID005 {PersonID: *PersonID005, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$26,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$26,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$26,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF('People and Organizations'!$A$27="","",CONCATENATE("  - &amp;AffiliationID006 {PersonID: *PersonID006, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$27,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$27,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$27,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF('People and Organizations'!$A$28="","",CONCATENATE("  - &amp;AffiliationID007 {PersonID: *PersonID007, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$28,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$28,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$28,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF('People and Organizations'!$A$29="","",CONCATENATE("  - &amp;AffiliationID008 {PersonID: *PersonID008, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$29,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$29,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$29,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>IF('People and Organizations'!$A$30="","",CONCATENATE("  - &amp;AffiliationID009 {PersonID: *PersonID009, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$30,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$30,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$30,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF('People and Organizations'!$A$31="","",CONCATENATE("  - &amp;AffiliationID010 {PersonID: *PersonID010, OrganizationID: *OrganizationID0",TEXT(MATCH('People and Organizations'!$E$31,'People and Organizations'!$C$9:$C$18,0),"dd"),", IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: ",CHAR(34),'People and Organizations'!$F$31,CHAR(34),", PrimaryAddress: ",CHAR(34),'People and Organizations'!$G$31,CHAR(34),", PersonLink: }"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>CONCATENATE("    Title: ",CHAR(34),'Dataset Citation'!$B$11,CHAR(34))</f>
+        <v xml:space="preserve">    Title: "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>CONCATENATE("    Publisher: ",CHAR(34),'Dataset Citation'!$B$12,CHAR(34))</f>
+        <v xml:space="preserve">    Publisher: "iUTAH Modeling and Data Federation"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>CONCATENATE("    PublicationYear: ",CHAR(34),'Dataset Citation'!$B$13,CHAR(34))</f>
+        <v xml:space="preserve">    PublicationYear: "2015"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>CONCATENATE("    CitationLink: ",CHAR(34),'Dataset Citation'!$B$15,CHAR(34))</f>
+        <v xml:space="preserve">    CitationLink: "http://repository.iutahepscor.org/dataset/iutah-gamut-network-raw-data-at-tw-daniels-forest-climate-site-lr-twdef-c"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>CONCATENATE("  - &amp;AuthorListID001  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$21,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$21,"}")</f>
+        <v xml:space="preserve">  - &amp;AuthorListID001  {CitationID: *CitationID001, PersonID: *PersonID001, AuthorOrder: 1}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>IF('Dataset Citation'!B22="","",CONCATENATE("  - &amp;AuthorListID002  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B22,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A22,"}"))</f>
+        <v xml:space="preserve">  - &amp;AuthorListID002  {CitationID: *CitationID001, PersonID: *PersonID002, AuthorOrder: 2}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>IF('Dataset Citation'!$B$23="","",CONCATENATE("  - &amp;AuthorListID003  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$23,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$23,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>IF('Dataset Citation'!$B$24="","",CONCATENATE("  - &amp;AuthorListID004  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$24,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$24,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>IF('Dataset Citation'!$B$25="","",CONCATENATE("  - &amp;AuthorListID005  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$25,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$25,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>IF('Dataset Citation'!$B$26="","",CONCATENATE("  - &amp;AuthorListID006  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$26,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$26,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>IF('Dataset Citation'!$B$27="","",CONCATENATE("  - &amp;AuthorListID007  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$27,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$27,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF('Dataset Citation'!$B$28="","",CONCATENATE("  - &amp;AuthorListID008  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$28,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$28,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>IF('Dataset Citation'!$B$29="","",CONCATENATE("  - &amp;AuthorListID009  {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$29,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$29,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>IF('Dataset Citation'!$B$30="","",CONCATENATE("  - &amp;AuthorListID0010 {CitationID: *CitationID001, PersonID: *PersonID0",TEXT(MATCH('Dataset Citation'!$B$30,'People and Organizations'!$C$22:$C$31,0),"dd"),", AuthorOrder: ",'Dataset Citation'!$A$30,"}"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>CONCATENATE("  RelationshipTypeCV: ",'Dataset Citation'!$B$10)</f>
+        <v xml:space="preserve">  RelationshipTypeCV: IsAllOf</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A8)))</formula>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A18)))</formula>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A32)))</formula>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A21)))</formula>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="PLEASE FILL IN">
+      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PLEASE FILL IN">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PLEASE FILL IN">
       <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PLEASE FILL IN">
-      <formula>NOT(ISERROR(SEARCH("PLEASE FILL IN",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7662,7 +9043,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,291 +9064,291 @@
       </c>
     </row>
     <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>'YODA File - with Whitespace'!A3</f>
-        <v>0</v>
+      <c r="A3" t="e">
+        <f>'YODA File - with Whitespace'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>'YODA File - with Whitespace'!A4</f>
-        <v>Dataset:</v>
+        <f>'YODA File - with Whitespace'!A3</f>
+        <v>Dataset: &amp;DataSetID001</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>'YODA File - with Whitespace'!A5</f>
+        <f>'YODA File - with Whitespace'!A4</f>
         <v xml:space="preserve">  DataSetUUID:  ~</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>'YODA File - with Whitespace'!A6</f>
+        <f>'YODA File - with Whitespace'!A5</f>
         <v xml:space="preserve">  DataSetTypeCV:  "Climate"</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>'YODA File - with Whitespace'!A7</f>
+        <f>'YODA File - with Whitespace'!A6</f>
         <v xml:space="preserve">  DataSetCode:  "TWDEF_AirTemp"</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>'YODA File - with Whitespace'!A8</f>
+        <f>'YODA File - with Whitespace'!A7</f>
         <v xml:space="preserve">  DataSetCode:  "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>'YODA File - with Whitespace'!A9</f>
+        <f>'YODA File - with Whitespace'!A8</f>
         <v xml:space="preserve">  DataSetAbstract:  "Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period."</v>
       </c>
     </row>
     <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>'YODA File - with Whitespace'!A10</f>
-        <v>0</v>
+      <c r="A10" t="e">
+        <f>'YODA File - with Whitespace'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>'YODA File - with Whitespace'!A11</f>
+        <f>'YODA File - with Whitespace'!A9</f>
         <v>People:</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>'YODA File - with Whitespace'!A12</f>
-        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh", PersonOrcID:  ""}</v>
+        <f>'YODA File - with Whitespace'!A10</f>
+        <v xml:space="preserve">  - &amp;PersonID001 {PersonFirstName:  "Jeffrey", PersonMiddleName:  "S.", PersonLastName:  "Horsburgh"}</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>'YODA File - with Whitespace'!A13</f>
-        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones", PersonOrcID:  ""}</v>
+        <f>'YODA File - with Whitespace'!A11</f>
+        <v xml:space="preserve">  - &amp;PersonID002 {PersonFirstName:  "Amber", PersonMiddleName:  "", PersonLastName:  "Spackman Jones"}</v>
       </c>
     </row>
     <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
+        <f>'YODA File - with Whitespace'!A12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>'YODA File - with Whitespace'!A13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
         <f>'YODA File - with Whitespace'!A14</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <f>'YODA File - with Whitespace'!A15</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>'YODA File - with Whitespace'!A16</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
         <f>'YODA File - with Whitespace'!A17</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>'YODA File - with Whitespace'!A18</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
         <f>'YODA File - with Whitespace'!A19</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>'YODA File - with Whitespace'!A20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>'YODA File - with Whitespace'!A21</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>'YODA File - with Whitespace'!A22</f>
-        <v>0</v>
+      <c r="A22" t="e">
+        <f>'YODA File - with Whitespace'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>'YODA File - with Whitespace'!A23</f>
+        <f>'YODA File - with Whitespace'!A20</f>
         <v>Organizations:</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>'YODA File - with Whitespace'!A24</f>
+        <f>'YODA File - with Whitespace'!A21</f>
         <v xml:space="preserve">  - &amp;OrganizationID001 {OrganizationTypeCV:  "University", OrganizationCode:  "USU", OrganizationName:  "Utah State University", OrganizationDescription:  "", OrganizationLink:  ""}</v>
       </c>
     </row>
     <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
+        <f>'YODA File - with Whitespace'!A22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'YODA File - with Whitespace'!A23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'YODA File - with Whitespace'!A24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
         <f>'YODA File - with Whitespace'!A25</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
         <f>'YODA File - with Whitespace'!A26</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
         <f>'YODA File - with Whitespace'!A27</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>'YODA File - with Whitespace'!A28</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f>'YODA File - with Whitespace'!A29</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f>'YODA File - with Whitespace'!A30</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>'YODA File - with Whitespace'!A31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>'YODA File - with Whitespace'!A32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>'YODA File - with Whitespace'!A33</f>
-        <v/>
-      </c>
-    </row>
     <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>'YODA File - with Whitespace'!A34</f>
-        <v>0</v>
+      <c r="A34" t="e">
+        <f>'YODA File - with Whitespace'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
+        <f>'YODA File - with Whitespace'!A31</f>
+        <v>Affiliations:</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>'YODA File - with Whitespace'!A32</f>
+        <v xml:space="preserve">  - &amp;AffiliationID001 {PersonID: *PersonID001, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: "jeff.horsburgh@usu.edu", PrimaryAddress: "Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200", PersonLink: }</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>'YODA File - with Whitespace'!A33</f>
+        <v xml:space="preserve">  - &amp;AffiliationID002 {PersonID: *PersonID002, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: "amber.jones@usu.edu", PrimaryAddress: "Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200", PersonLink: }</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>'YODA File - with Whitespace'!A34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
         <f>'YODA File - with Whitespace'!A35</f>
-        <v>Affiliations:</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>'YODA File - with Whitespace'!A36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
         <f>'YODA File - with Whitespace'!A37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>'YODA File - with Whitespace'!A38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
         <f>'YODA File - with Whitespace'!A39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
         <f>'YODA File - with Whitespace'!A40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
         <f>'YODA File - with Whitespace'!A41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="e">
+        <f>'YODA File - with Whitespace'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>'YODA File - with Whitespace'!A42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+        <v>Citation: &amp;CitationID001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>'YODA File - with Whitespace'!A43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v xml:space="preserve">    Title: "Air temperature at the TW Daniels Experimental Forest Climate Station"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <f>'YODA File - with Whitespace'!A44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+        <v xml:space="preserve">    Publisher: "iUTAH Modeling and Data Federation"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>'YODA File - with Whitespace'!A45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>'YODA File - with Whitespace'!A46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>'YODA File - with Whitespace'!A47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>'YODA File - with Whitespace'!A48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>'YODA File - with Whitespace'!A49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>'YODA File - with Whitespace'!A50</f>
-        <v>0</v>
+        <v xml:space="preserve">    PublicationYear: "2015"</v>
       </c>
     </row>
   </sheetData>
@@ -7976,11 +9357,14 @@
       <filters>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <x14:filter val="- &amp;AffiliationID001 {PersonID: *PersonID001, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: &quot;jeff.horsburgh@usu.edu&quot;, PrimaryAddress: &quot;Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200&quot;, PersonLink: }"/>
+            <x14:filter val="- &amp;AffiliationID002 {PersonID: *PersonID002, OrganizationID: *OrganizationID001, IsPrimaryOrganizationContact: , AffiliationStartDate: , AffiliationEndDate: , PrimaryPhone: , PrimaryEmail: &quot;amber.jones@usu.edu&quot;, PrimaryAddress: &quot;Civil and Environmental Engineering, Utah Water Research Laboratory, 8200 Old Main Hill, Logan, UT 84322-8200&quot;, PersonLink: }"/>
             <x14:filter val="- &amp;OrganizationID001 {OrganizationTypeCV:  &quot;University&quot;, OrganizationCode:  &quot;USU&quot;, OrganizationName:  &quot;Utah State University&quot;, OrganizationDescription:  &quot;&quot;, OrganizationLink:  &quot;&quot;}"/>
             <x14:filter val="- &amp;PersonID001 {PersonFirstName:  &quot;Jeffrey&quot;, PersonMiddleName:  &quot;S.&quot;, PersonLastName:  &quot;Horsburgh&quot;, PersonOrcID:  &quot;&quot;}"/>
             <x14:filter val="- &amp;PersonID002 {PersonFirstName:  &quot;Amber&quot;, PersonMiddleName:  &quot;&quot;, PersonLastName:  &quot;Spackman Jones&quot;, PersonOrcID:  &quot;&quot;}"/>
             <x14:filter val="Affiliations:"/>
-            <x14:filter val="Dataset:"/>
+            <x14:filter val="Citation: &amp;CitationID001"/>
+            <x14:filter val="Dataset: &amp;DataSetID001"/>
             <x14:filter val="DataSetAbstract:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station. The data were measured using a Campbell Scientific HC2S3 temperature and relative humidity sensor. Measurements represent the average over the 15 minute recording period.&quot;"/>
             <x14:filter val="DataSetCode:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
             <x14:filter val="DataSetCode:  &quot;TWDEF_AirTemp&quot;"/>
@@ -7988,6 +9372,9 @@
             <x14:filter val="DataSetUUID:  ~"/>
             <x14:filter val="Organizations:"/>
             <x14:filter val="People:"/>
+            <x14:filter val="PublicationYear: &quot;2015&quot;"/>
+            <x14:filter val="Publisher: &quot;iUTAH Modeling and Data Federation&quot;"/>
+            <x14:filter val="Title: &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
             <x14:filter val="YODA: {Version: 1.0.0, Profile: TimeSeries}"/>
           </mc:Choice>
           <mc:Fallback>
@@ -7995,13 +9382,17 @@
             <filter val="- &amp;PersonID001 {PersonFirstName:  &quot;Jeffrey&quot;, PersonMiddleName:  &quot;S.&quot;, PersonLastName:  &quot;Horsburgh&quot;, PersonOrcID:  &quot;&quot;}"/>
             <filter val="- &amp;PersonID002 {PersonFirstName:  &quot;Amber&quot;, PersonMiddleName:  &quot;&quot;, PersonLastName:  &quot;Spackman Jones&quot;, PersonOrcID:  &quot;&quot;}"/>
             <filter val="Affiliations:"/>
-            <filter val="Dataset:"/>
+            <filter val="Citation: &amp;CitationID001"/>
+            <filter val="Dataset: &amp;DataSetID001"/>
             <filter val="DataSetCode:  &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
             <filter val="DataSetCode:  &quot;TWDEF_AirTemp&quot;"/>
             <filter val="DataSetTypeCV:  &quot;Climate&quot;"/>
             <filter val="DataSetUUID:  ~"/>
             <filter val="Organizations:"/>
             <filter val="People:"/>
+            <filter val="PublicationYear: &quot;2015&quot;"/>
+            <filter val="Publisher: &quot;iUTAH Modeling and Data Federation&quot;"/>
+            <filter val="Title: &quot;Air temperature at the TW Daniels Experimental Forest Climate Station&quot;"/>
             <filter val="YODA: {Version: 1.0.0, Profile: TimeSeries}"/>
           </mc:Fallback>
         </mc:AlternateContent>
